--- a/image/documentreference.xlsx
+++ b/image/documentreference.xlsx
@@ -1324,48 +1324,48 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="44.51171875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="45.24609375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="70.24609375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="70.85546875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="70.828125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="57.9296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="42.26171875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="71.41015625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="57.55078125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="43.28515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="50.640625" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="50.96484375" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="33.046875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="81.6875" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="155.4375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="82.05078125" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="157.953125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/image/documentreference.xlsx
+++ b/image/documentreference.xlsx
@@ -454,7 +454,7 @@
     <t>DocumentReference.docStatus</t>
   </si>
   <si>
-    <t>preliminary | final | appended | amended | entered-in-error</t>
+    <t>preliminary | final | amended | entered-in-error</t>
   </si>
   <si>
     <t>The status of the underlying document.</t>

--- a/image/documentreference.xlsx
+++ b/image/documentreference.xlsx
@@ -454,7 +454,7 @@
     <t>DocumentReference.docStatus</t>
   </si>
   <si>
-    <t>preliminary | final | appended | amended | entered-in-error</t>
+    <t>preliminary | final | amended | entered-in-error</t>
   </si>
   <si>
     <t>The status of the underlying document.</t>
@@ -1324,48 +1324,48 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="44.51171875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="45.24609375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="70.24609375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="70.85546875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="70.828125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="57.9296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="42.26171875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="71.41015625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="57.55078125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="43.28515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="50.640625" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="50.96484375" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="33.046875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="81.6875" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="155.4375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="82.05078125" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="157.953125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/image/documentreference.xlsx
+++ b/image/documentreference.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1747" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1785" uniqueCount="382">
   <si>
     <t>Path</t>
   </si>
@@ -155,7 +155,7 @@
     <t>A reference to a document</t>
   </si>
   <si>
-    <t>A reference to a document of any kind for any purpose. Provides metadata about the document so that the document can be discovered and managed. The scope of a document is any seralized object with a mime-type, so includes formal patient centric documents (CDA), cliical notes, scanned paper, and non-patient specific documents like policy text.</t>
+    <t>A reference to a document of any kind for any purpose. While the term “document” implies a more narrow focus, for this resource this "document" encompasses *any* seralized object with a mime-type, so includes formal patient centric documents (CDA), clniical notes, scanned paper, non-patient specific documents like policy text, as well as a photo, video, or audio recording acquired or used in healthcare.  The DocumentReference resource provides metadata about the document so that the document can be discovered and managed.  The actual content may be inline base64 encoded data or provided by direct reference.</t>
   </si>
   <si>
     <t>Usually, this is used for documents other than those defined by FHIR.</t>
@@ -186,7 +186,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -745,10 +745,6 @@
   </si>
   <si>
     <t>DocumentReference.relatesTo.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -1182,6 +1178,29 @@
   </si>
   <si>
     <t>DocumentEntry.referenceIdList</t>
+  </si>
+  <si>
+    <t>DocumentReference.context.basedOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fulfills
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(ServiceRequest|CarePlan)
+</t>
+  </si>
+  <si>
+    <t>Procedure that caused this media to be created</t>
+  </si>
+  <si>
+    <t>A procedure that is fulfilled in whole or in part by the creation of this media.</t>
+  </si>
+  <si>
+    <t>Allows tracing of authorization for the event and tracking whether proposals/recommendations were acted upon.</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=FLFS].target</t>
   </si>
 </sst>
 </file>
@@ -1315,7 +1334,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP46"/>
+  <dimension ref="A1:AP47"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1324,48 +1343,48 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="45.24609375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="44.51171875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="70.85546875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="70.24609375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="71.41015625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="57.55078125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="43.28515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="70.828125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="57.9296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="42.26171875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="50.96484375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="50.640625" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="82.05078125" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="157.953125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="81.6875" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="155.4375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4039,13 +4058,13 @@
         <v>43</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4096,7 +4115,7 @@
         <v>43</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>44</v>
@@ -4117,7 +4136,7 @@
         <v>43</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>43</v>
@@ -4134,7 +4153,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4163,7 +4182,7 @@
         <v>101</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M24" t="s" s="2">
         <v>103</v>
@@ -4216,7 +4235,7 @@
         <v>43</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>44</v>
@@ -4237,7 +4256,7 @@
         <v>43</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>43</v>
@@ -4254,11 +4273,11 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4280,10 +4299,10 @@
         <v>100</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="M25" t="s" s="2">
         <v>103</v>
@@ -4338,7 +4357,7 @@
         <v>43</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>44</v>
@@ -4376,7 +4395,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4402,13 +4421,13 @@
         <v>74</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4437,11 +4456,11 @@
         <v>133</v>
       </c>
       <c r="X26" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="Y26" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="Y26" t="s" s="2">
-        <v>254</v>
-      </c>
       <c r="Z26" t="s" s="2">
         <v>43</v>
       </c>
@@ -4458,7 +4477,7 @@
         <v>43</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>55</v>
@@ -4476,27 +4495,27 @@
         <v>43</v>
       </c>
       <c r="AK26" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AL26" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="AL26" t="s" s="2">
+      <c r="AM26" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AN26" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AO26" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AP26" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AO26" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AP26" t="s" s="2">
-        <v>257</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4519,13 +4538,13 @@
         <v>56</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4576,7 +4595,7 @@
         <v>43</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>55</v>
@@ -4594,27 +4613,27 @@
         <v>43</v>
       </c>
       <c r="AK27" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AL27" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="AL27" t="s" s="2">
+      <c r="AM27" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AN27" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AO27" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AP27" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AO27" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AP27" t="s" s="2">
-        <v>264</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4637,19 +4656,19 @@
         <v>56</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>236</v>
+        <v>57</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>43</v>
@@ -4698,7 +4717,7 @@
         <v>43</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>44</v>
@@ -4719,24 +4738,24 @@
         <v>43</v>
       </c>
       <c r="AL28" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AM28" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AN28" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AO28" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="AM28" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AO28" t="s" s="2">
+      <c r="AP28" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="AP28" t="s" s="2">
-        <v>272</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4762,16 +4781,16 @@
         <v>151</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>43</v>
@@ -4796,14 +4815,14 @@
         <v>43</v>
       </c>
       <c r="W29" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="X29" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="X29" t="s" s="2">
+      <c r="Y29" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="Y29" t="s" s="2">
-        <v>280</v>
-      </c>
       <c r="Z29" t="s" s="2">
         <v>43</v>
       </c>
@@ -4820,7 +4839,7 @@
         <v>43</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>44</v>
@@ -4838,27 +4857,27 @@
         <v>43</v>
       </c>
       <c r="AK29" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AM29" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="AM29" t="s" s="2">
+      <c r="AN29" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AO29" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="AN29" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AO29" t="s" s="2">
+      <c r="AP29" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="AP29" t="s" s="2">
-        <v>285</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4884,10 +4903,10 @@
         <v>227</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4938,7 +4957,7 @@
         <v>43</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>55</v>
@@ -4956,10 +4975,10 @@
         <v>43</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="AL30" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>43</v>
@@ -4976,7 +4995,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4999,13 +5018,13 @@
         <v>43</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5056,7 +5075,7 @@
         <v>43</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>44</v>
@@ -5077,7 +5096,7 @@
         <v>43</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>43</v>
@@ -5094,7 +5113,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5123,7 +5142,7 @@
         <v>101</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M32" t="s" s="2">
         <v>103</v>
@@ -5176,7 +5195,7 @@
         <v>43</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>44</v>
@@ -5197,7 +5216,7 @@
         <v>43</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>43</v>
@@ -5214,11 +5233,11 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -5240,10 +5259,10 @@
         <v>100</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="M33" t="s" s="2">
         <v>103</v>
@@ -5298,7 +5317,7 @@
         <v>43</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>44</v>
@@ -5336,7 +5355,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5359,13 +5378,13 @@
         <v>56</v>
       </c>
       <c r="J34" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="K34" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="K34" t="s" s="2">
+      <c r="L34" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5416,7 +5435,7 @@
         <v>43</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>55</v>
@@ -5434,27 +5453,27 @@
         <v>43</v>
       </c>
       <c r="AK34" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AM34" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="AL34" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="AM34" t="s" s="2">
+      <c r="AN34" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AO34" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="AN34" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AO34" t="s" s="2">
+      <c r="AP34" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="AP34" t="s" s="2">
-        <v>301</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5477,16 +5496,16 @@
         <v>56</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="K35" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="K35" t="s" s="2">
+      <c r="L35" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5515,11 +5534,11 @@
         <v>78</v>
       </c>
       <c r="X35" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="Y35" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="Y35" t="s" s="2">
-        <v>308</v>
-      </c>
       <c r="Z35" t="s" s="2">
         <v>43</v>
       </c>
@@ -5536,7 +5555,7 @@
         <v>43</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>44</v>
@@ -5554,27 +5573,27 @@
         <v>43</v>
       </c>
       <c r="AK35" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AM35" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="AL35" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="AM35" t="s" s="2">
+      <c r="AN35" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AO35" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AP35" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AO35" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AP35" t="s" s="2">
-        <v>311</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5600,13 +5619,13 @@
         <v>227</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5656,7 +5675,7 @@
         <v>43</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>44</v>
@@ -5677,7 +5696,7 @@
         <v>43</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>43</v>
@@ -5694,7 +5713,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5717,13 +5736,13 @@
         <v>43</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5774,7 +5793,7 @@
         <v>43</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>44</v>
@@ -5795,7 +5814,7 @@
         <v>43</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>43</v>
@@ -5812,7 +5831,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5841,7 +5860,7 @@
         <v>101</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M38" t="s" s="2">
         <v>103</v>
@@ -5894,7 +5913,7 @@
         <v>43</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>44</v>
@@ -5915,7 +5934,7 @@
         <v>43</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>43</v>
@@ -5932,11 +5951,11 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -5958,10 +5977,10 @@
         <v>100</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="M39" t="s" s="2">
         <v>103</v>
@@ -6016,7 +6035,7 @@
         <v>43</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>44</v>
@@ -6054,7 +6073,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6077,13 +6096,13 @@
         <v>43</v>
       </c>
       <c r="J40" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="K40" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="K40" t="s" s="2">
+      <c r="L40" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6134,7 +6153,7 @@
         <v>43</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>44</v>
@@ -6149,19 +6168,19 @@
         <v>43</v>
       </c>
       <c r="AJ40" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AK40" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="AK40" t="s" s="2">
+      <c r="AL40" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="AL40" t="s" s="2">
+      <c r="AM40" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AN40" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>43</v>
@@ -6172,7 +6191,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6198,13 +6217,13 @@
         <v>151</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6233,11 +6252,11 @@
         <v>169</v>
       </c>
       <c r="X41" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="Y41" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="Y41" t="s" s="2">
-        <v>333</v>
-      </c>
       <c r="Z41" t="s" s="2">
         <v>43</v>
       </c>
@@ -6254,7 +6273,7 @@
         <v>43</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>44</v>
@@ -6272,27 +6291,27 @@
         <v>43</v>
       </c>
       <c r="AK41" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AL41" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="AL41" t="s" s="2">
+      <c r="AM41" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AN41" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AO41" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AP41" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AO41" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AP41" t="s" s="2">
-        <v>336</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6315,13 +6334,13 @@
         <v>56</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="K42" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="K42" t="s" s="2">
+      <c r="L42" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6372,7 +6391,7 @@
         <v>43</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>44</v>
@@ -6390,27 +6409,27 @@
         <v>43</v>
       </c>
       <c r="AK42" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AL42" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="AL42" t="s" s="2">
+      <c r="AM42" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="AM42" t="s" s="2">
+      <c r="AN42" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AO42" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AP42" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AO42" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AP42" t="s" s="2">
-        <v>344</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6436,10 +6455,10 @@
         <v>151</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6469,11 +6488,11 @@
         <v>169</v>
       </c>
       <c r="X43" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="Y43" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="Y43" t="s" s="2">
-        <v>349</v>
-      </c>
       <c r="Z43" t="s" s="2">
         <v>43</v>
       </c>
@@ -6490,7 +6509,7 @@
         <v>43</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>44</v>
@@ -6508,27 +6527,27 @@
         <v>43</v>
       </c>
       <c r="AK43" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AL43" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="AL43" t="s" s="2">
+      <c r="AM43" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="AM43" t="s" s="2">
+      <c r="AN43" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AO43" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AP43" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AO43" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AP43" t="s" s="2">
-        <v>353</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6554,16 +6573,16 @@
         <v>151</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>43</v>
@@ -6591,11 +6610,11 @@
         <v>169</v>
       </c>
       <c r="X44" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="Y44" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="Y44" t="s" s="2">
-        <v>360</v>
-      </c>
       <c r="Z44" t="s" s="2">
         <v>43</v>
       </c>
@@ -6612,7 +6631,7 @@
         <v>43</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>44</v>
@@ -6630,13 +6649,13 @@
         <v>43</v>
       </c>
       <c r="AK44" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AL44" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="AL44" t="s" s="2">
-        <v>351</v>
-      </c>
       <c r="AM44" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>43</v>
@@ -6645,12 +6664,12 @@
         <v>43</v>
       </c>
       <c r="AP44" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6673,13 +6692,13 @@
         <v>43</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="K45" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="K45" t="s" s="2">
+      <c r="L45" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>365</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6730,7 +6749,7 @@
         <v>43</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>44</v>
@@ -6763,12 +6782,12 @@
         <v>43</v>
       </c>
       <c r="AP45" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6791,16 +6810,16 @@
         <v>43</v>
       </c>
       <c r="J46" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="K46" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="K46" t="s" s="2">
+      <c r="L46" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -6850,7 +6869,7 @@
         <v>43</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>44</v>
@@ -6868,22 +6887,142 @@
         <v>43</v>
       </c>
       <c r="AK46" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AL46" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="AL46" t="s" s="2">
+      <c r="AM46" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="AM46" t="s" s="2">
+      <c r="AN46" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AO46" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AP46" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="AN46" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AO46" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AP46" t="s" s="2">
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="2">
         <v>375</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="M47" s="2"/>
+      <c r="N47" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P47" s="2"/>
+      <c r="Q47" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R47" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AN47" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AO47" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AP47" t="s" s="2">
+        <v>374</v>
       </c>
     </row>
   </sheetData>
